--- a/StructureDefinition-no-basis-Medication.xlsx
+++ b/StructureDefinition-no-basis-Medication.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.17-alpha</t>
+    <t>2.1.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/StructureDefinition-no-basis-Medication.xlsx
+++ b/StructureDefinition-no-basis-Medication.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.1.0</t>
+    <t>2.1.1</t>
   </si>
   <si>
     <t>Name</t>
